--- a/datasets/gdp/Constant Prices.xlsx
+++ b/datasets/gdp/Constant Prices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\econ_gju\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\econ_gju\datasets\gdp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1B12EE-5FB8-4067-94BA-CA4699BBAFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7713D77A-DEBF-4763-88C5-C964042D35FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="10736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Other Services(Rs Lakh)</t>
-  </si>
-  <si>
     <t>1980-1981</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>State Domestic Product (SDP)</t>
+  </si>
+  <si>
+    <t>Other Services</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1090,48 +1090,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>2287175</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>2261394</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>2368033</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>2439859</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>2508410</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>2829162</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>2702283</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>2362859</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>3273226</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>3225814</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>3575408</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>3558849</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>3645906</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>3761767</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>4025642</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>3838643</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>4240403</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>3914053</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>4040473</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>4222515</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>4369344</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>4363441</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>4314155</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>4647748</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>4804556</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>4717786</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>5385428</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>5382117</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>5770281</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>5686792</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>5983365</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>6453886</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>6326499</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>6502514</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>6357661</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>6602221</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>7126659</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>7625400</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>8006156</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>8454970</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>8816863</v>
